--- a/Document/大棚控制器_错误代码查询表 .xlsx
+++ b/Document/大棚控制器_错误代码查询表 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>代码</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>储槽液位B4信号过高（传感器故障、&gt;20mA）</t>
+  </si>
+  <si>
+    <t>0x000E</t>
+  </si>
+  <si>
+    <t>子板卡/卡槽损坏</t>
   </si>
 </sst>
 </file>
@@ -132,11 +138,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,19 +161,58 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,35 +227,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,17 +257,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,15 +266,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,17 +274,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,15 +288,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -297,7 +296,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,19 +311,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,157 +467,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,50 +520,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,17 +549,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,162 +593,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1135,14 +1131,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:N30"/>
+  <dimension ref="C2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G19" sqref="G19:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
+    <row r="2" ht="15.15"/>
     <row r="3" ht="18.15" spans="3:14">
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -1151,17 +1148,17 @@
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" ht="18.15" spans="3:14">
       <c r="C4" s="1" t="s">
@@ -1170,492 +1167,500 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" ht="15.15" spans="3:14">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" ht="15.15" spans="3:14">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" ht="15.15" spans="3:14">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" ht="15.15" spans="3:14">
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" ht="15.15" spans="3:14">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" ht="15.15" spans="3:14">
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>5</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" ht="15.15" spans="3:14">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>6</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" ht="15.15" spans="3:14">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>7</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" ht="15.15" spans="3:14">
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>8</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" ht="15.15" spans="3:14">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>9</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" ht="15.15" spans="3:14">
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>10</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
     </row>
     <row r="16" ht="15.15" spans="3:14">
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>11</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
     </row>
     <row r="17" ht="15.15" spans="3:14">
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>12</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" ht="15.15" spans="3:14">
-      <c r="C18" s="4" t="s">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="C18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>13</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="5" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
     </row>
     <row r="19" ht="15.15" spans="3:14">
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="2">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
     </row>
     <row r="20" ht="15.15" spans="3:14">
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
     </row>
     <row r="21" ht="15.15" spans="3:14">
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
     </row>
     <row r="22" ht="15.15" spans="3:14">
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" ht="15.15" spans="3:14">
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
     </row>
     <row r="24" ht="15.15" spans="3:14">
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
     </row>
     <row r="25" ht="15.15" spans="3:14">
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
     </row>
     <row r="26" ht="15.15" spans="3:14">
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
     </row>
     <row r="27" ht="15.15" spans="3:14">
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
     </row>
     <row r="28" ht="15.15" spans="3:14">
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
     </row>
     <row r="29" ht="15.15" spans="3:14">
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
     </row>
     <row r="30" ht="15.15" spans="3:14">
-      <c r="C30" s="4"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="55">

--- a/Document/大棚控制器_错误代码查询表 .xlsx
+++ b/Document/大棚控制器_错误代码查询表 .xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="旧版" sheetId="1" r:id="rId1"/>
+    <sheet name="新版" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
   <si>
     <t>代码</t>
   </si>
@@ -130,6 +130,99 @@
   </si>
   <si>
     <t>子板卡/卡槽损坏</t>
+  </si>
+  <si>
+    <t>储槽压力A信号丢失（断路）</t>
+  </si>
+  <si>
+    <t>储槽压力A信号过低（传感器故障、&lt;4mA）</t>
+  </si>
+  <si>
+    <t>储槽压力A信号过高（传感器故障、&gt;20mA）</t>
+  </si>
+  <si>
+    <t>汽化器出口压力A信号丢失（断路）</t>
+  </si>
+  <si>
+    <t>汽化器出口压力A信号过低（传感器故障、&lt;4mA）</t>
+  </si>
+  <si>
+    <t>汽化器出口压力A信号过高（传感器故障、&gt;20mA）</t>
+  </si>
+  <si>
+    <t>汽化器出口压力B信号丢失（断路）</t>
+  </si>
+  <si>
+    <t>汽化器出口压力B信号过低（传感器故障、&lt;4mA）</t>
+  </si>
+  <si>
+    <t>汽化器出口压力B信号过高（传感器故障、&gt;20mA）</t>
+  </si>
+  <si>
+    <t>储槽液位信号丢失（断路）</t>
+  </si>
+  <si>
+    <t>储槽液位信号过低（传感器故障、&lt;4mA）</t>
+  </si>
+  <si>
+    <t>储槽液位信号过高（传感器故障、&gt;20mA）</t>
+  </si>
+  <si>
+    <t>储槽压力B信号丢失（断路）</t>
+  </si>
+  <si>
+    <t>0x000F</t>
+  </si>
+  <si>
+    <t>储槽压力B信号过低（传感器故障、&lt;4mA）</t>
+  </si>
+  <si>
+    <t>0x0010</t>
+  </si>
+  <si>
+    <t>储槽压力B信号过高（传感器故障、&gt;20mA）</t>
+  </si>
+  <si>
+    <t>0x0011</t>
+  </si>
+  <si>
+    <t>流量计A信号丢失（断路）</t>
+  </si>
+  <si>
+    <t>0x0012</t>
+  </si>
+  <si>
+    <t>流量计A信号过低（传感器故障、&lt;4mA）</t>
+  </si>
+  <si>
+    <t>0x0013</t>
+  </si>
+  <si>
+    <t>流量计A信号过高（传感器故障、&gt;20mA）</t>
+  </si>
+  <si>
+    <t>0x0014</t>
+  </si>
+  <si>
+    <t>流量计B信号丢失（断路）</t>
+  </si>
+  <si>
+    <t>0x0015</t>
+  </si>
+  <si>
+    <t>流量计B信号过低（传感器故障、&lt;4mA）</t>
+  </si>
+  <si>
+    <t>0x0016</t>
+  </si>
+  <si>
+    <t>流量计B信号过高（传感器故障、&gt;20mA）</t>
+  </si>
+  <si>
+    <t>0x0017</t>
+  </si>
+  <si>
+    <t>子板卡/卡槽通信失败/损坏</t>
   </si>
 </sst>
 </file>
@@ -137,9 +230,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -165,11 +258,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,22 +274,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,7 +289,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,26 +325,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,9 +356,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,21 +381,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,49 +404,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,133 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,16 +617,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,17 +648,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,15 +710,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -625,43 +718,43 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,97 +766,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,7 +1226,7 @@
   <sheetPr/>
   <dimension ref="C2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G19" sqref="G19:N19"/>
     </sheetView>
   </sheetViews>
@@ -1464,7 +1557,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" ht="15.15" spans="3:14">
       <c r="C18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1486,7 +1579,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" ht="15.15" spans="3:14">
+    <row r="19" spans="3:14">
       <c r="C19" s="3" t="s">
         <v>36</v>
       </c>
@@ -1729,14 +1822,667 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="D3:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" ht="15.15"/>
+    <row r="4" ht="18.15" spans="4:15">
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" ht="18.15" spans="4:15">
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" ht="15.15" spans="4:15">
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" ht="15.15" spans="4:15">
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" ht="15.15" spans="4:15">
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" ht="15.15" spans="4:15">
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" ht="15.15" spans="4:15">
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" ht="15.15" spans="4:15">
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" ht="15.15" spans="4:15">
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" ht="15.15" spans="4:15">
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" ht="15.15" spans="4:15">
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" ht="15.15" spans="4:15">
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" ht="15.15" spans="4:15">
+      <c r="D16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" ht="15.15" spans="4:15">
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="2">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" ht="15.15" spans="4:15">
+      <c r="D18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" ht="15.15" spans="4:15">
+      <c r="D19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="2">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" ht="15.15" spans="4:15">
+      <c r="D20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="2">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" ht="15.15" spans="4:15">
+      <c r="D21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="2">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" ht="15.15" spans="4:15">
+      <c r="D22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="2">
+        <v>16</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" ht="15.15" spans="4:15">
+      <c r="D23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="2">
+        <v>17</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" ht="15.15" spans="4:15">
+      <c r="D24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="2">
+        <v>18</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" ht="15.15" spans="4:15">
+      <c r="D25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="2">
+        <v>19</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" ht="15.15" spans="4:15">
+      <c r="D26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="2">
+        <v>20</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" ht="15.15" spans="4:15">
+      <c r="D27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="2">
+        <v>21</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" ht="15.15" spans="4:15">
+      <c r="D28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="2">
+        <v>22</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" ht="15.15" spans="4:15">
+      <c r="D29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="2">
+        <v>23</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" ht="15.15" spans="4:15">
+      <c r="D30" s="3"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" ht="15.15" spans="4:15">
+      <c r="D31" s="3"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="55">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:O30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:O31"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="H4:O5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Document/大棚控制器_错误代码查询表 .xlsx
+++ b/Document/大棚控制器_错误代码查询表 .xlsx
@@ -252,6 +252,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -267,43 +288,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,47 +302,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,7 +320,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,6 +373,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -394,6 +387,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -404,13 +404,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,7 +476,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,31 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,121 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,15 +613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -637,31 +628,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,17 +658,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,6 +701,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -718,145 +718,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1579,7 +1579,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" ht="15.15" spans="3:14">
       <c r="C19" s="3" t="s">
         <v>36</v>
       </c>
@@ -2484,7 +2484,7 @@
     <mergeCell ref="H4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>

--- a/Document/大棚控制器_错误代码查询表 .xlsx
+++ b/Document/大棚控制器_错误代码查询表 .xlsx
@@ -230,10 +230,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -252,14 +252,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,7 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,14 +274,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,14 +290,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,6 +318,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -359,7 +344,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,13 +353,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,8 +372,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,19 +404,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,163 +602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,21 +647,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -676,13 +679,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,6 +717,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -718,10 +736,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,137 +748,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,6 +892,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1824,8 +1869,8 @@
   <sheetPr/>
   <dimension ref="D3:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2001,7 +2046,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" ht="15.15" spans="4:15">
+    <row r="12" spans="4:15">
       <c r="D12" s="3" t="s">
         <v>20</v>
       </c>
@@ -2046,70 +2091,70 @@
       <c r="O13" s="4"/>
     </row>
     <row r="14" ht="15.15" spans="4:15">
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="6">
         <v>8</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="4" t="s">
+      <c r="G14" s="6"/>
+      <c r="H14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" ht="15.15" spans="4:15">
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="6">
         <v>9</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="4" t="s">
+      <c r="G15" s="6"/>
+      <c r="H15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
     </row>
     <row r="16" ht="15.15" spans="4:15">
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="6">
         <v>10</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="4" t="s">
+      <c r="G16" s="6"/>
+      <c r="H16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
     </row>
     <row r="17" ht="15.15" spans="4:15">
       <c r="D17" s="3" t="s">
@@ -2178,70 +2223,70 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" ht="15.15" spans="4:15">
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="9">
         <v>14</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="4" t="s">
+      <c r="G20" s="9"/>
+      <c r="H20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
     </row>
     <row r="21" ht="15.15" spans="4:15">
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="9">
         <v>15</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="4" t="s">
+      <c r="G21" s="9"/>
+      <c r="H21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" ht="15.15" spans="4:15">
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="9">
         <v>16</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="4" t="s">
+      <c r="G22" s="9"/>
+      <c r="H22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
     </row>
     <row r="23" ht="15.15" spans="4:15">
       <c r="D23" s="3" t="s">
@@ -2310,70 +2355,70 @@
       <c r="O25" s="4"/>
     </row>
     <row r="26" ht="15.15" spans="4:15">
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="12">
         <v>20</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="4" t="s">
+      <c r="G26" s="12"/>
+      <c r="H26" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
     </row>
     <row r="27" ht="15.15" spans="4:15">
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="12">
         <v>21</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="4" t="s">
+      <c r="G27" s="12"/>
+      <c r="H27" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
     </row>
     <row r="28" ht="15.15" spans="4:15">
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="12">
         <v>22</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="4" t="s">
+      <c r="G28" s="12"/>
+      <c r="H28" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
     </row>
     <row r="29" ht="15.15" spans="4:15">
       <c r="D29" s="3" t="s">
